--- a/apps/load_data/2014/09/PLMOVMAE.xlsx
+++ b/apps/load_data/2014/09/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2014\HHY0914\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HHY ACTUALIZADOS\2014\HHY0914\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E9934E-2706-4A86-884B-0A9274AE9D38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA34357-4167-43CE-BBFA-6C5EBEBB0466}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$272</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$249</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -7841,7 +7842,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7849,6 +7850,7 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8206,8 +8208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250:XFD272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52134,13 +52136,13 @@
       <c r="P250" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q250" s="5">
+      <c r="Q250" s="7">
         <v>19912</v>
       </c>
       <c r="R250" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S250" s="5">
+      <c r="S250" s="7">
         <v>30682</v>
       </c>
       <c r="T250" s="4" t="s">
@@ -52334,13 +52336,13 @@
       <c r="P251" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q251" s="5">
+      <c r="Q251" s="7">
         <v>17060</v>
       </c>
       <c r="R251" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S251" s="5">
+      <c r="S251" s="7">
         <v>27515</v>
       </c>
       <c r="T251" s="4" t="s">
@@ -52534,13 +52536,13 @@
       <c r="P252" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q252" s="5">
+      <c r="Q252" s="7">
         <v>20367</v>
       </c>
       <c r="R252" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S252" s="5">
+      <c r="S252" s="7">
         <v>29556</v>
       </c>
       <c r="T252" s="4" t="s">
@@ -52734,13 +52736,13 @@
       <c r="P253" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q253" s="5">
+      <c r="Q253" s="7">
         <v>20503</v>
       </c>
       <c r="R253" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S253" s="5">
+      <c r="S253" s="7">
         <v>31747</v>
       </c>
       <c r="T253" s="4" t="s">
@@ -52939,13 +52941,13 @@
       <c r="P254" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q254" s="5">
+      <c r="Q254" s="7">
         <v>23601</v>
       </c>
       <c r="R254" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S254" s="5">
+      <c r="S254" s="7">
         <v>32104</v>
       </c>
       <c r="T254" s="4" t="s">
@@ -53139,13 +53141,13 @@
       <c r="P255" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q255" s="5">
+      <c r="Q255" s="7">
         <v>26843</v>
       </c>
       <c r="R255" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S255" s="5">
+      <c r="S255" s="7">
         <v>34699</v>
       </c>
       <c r="T255" s="4" t="s">
@@ -53344,13 +53346,13 @@
       <c r="P256" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q256" s="5">
+      <c r="Q256" s="7">
         <v>26100</v>
       </c>
       <c r="R256" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S256" s="5">
+      <c r="S256" s="7">
         <v>35089</v>
       </c>
       <c r="T256" s="4" t="s">
@@ -53554,13 +53556,13 @@
       <c r="P257" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q257" s="5">
+      <c r="Q257" s="7">
         <v>25703</v>
       </c>
       <c r="R257" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S257" s="5">
+      <c r="S257" s="7">
         <v>35049</v>
       </c>
       <c r="T257" s="4" t="s">
@@ -53759,13 +53761,13 @@
       <c r="P258" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q258" s="5">
+      <c r="Q258" s="7">
         <v>18523</v>
       </c>
       <c r="R258" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S258" s="5">
+      <c r="S258" s="7">
         <v>30941</v>
       </c>
       <c r="T258" s="4" t="s">
@@ -53964,13 +53966,13 @@
       <c r="P259" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q259" s="5">
+      <c r="Q259" s="7">
         <v>21898</v>
       </c>
       <c r="R259" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S259" s="5">
+      <c r="S259" s="7">
         <v>35669</v>
       </c>
       <c r="T259" s="4" t="s">
@@ -54169,13 +54171,13 @@
       <c r="P260" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q260" s="5">
+      <c r="Q260" s="7">
         <v>22181</v>
       </c>
       <c r="R260" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S260" s="5">
+      <c r="S260" s="7">
         <v>35049</v>
       </c>
       <c r="T260" s="4" t="s">
@@ -54374,13 +54376,13 @@
       <c r="P261" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q261" s="5">
+      <c r="Q261" s="7">
         <v>26243</v>
       </c>
       <c r="R261" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S261" s="5">
+      <c r="S261" s="7">
         <v>35268</v>
       </c>
       <c r="T261" s="4" t="s">
@@ -54576,13 +54578,13 @@
       <c r="P262" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q262" s="5">
+      <c r="Q262" s="7">
         <v>25502</v>
       </c>
       <c r="R262" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S262" s="5">
+      <c r="S262" s="7">
         <v>40664</v>
       </c>
       <c r="T262" s="4" t="s">
@@ -54776,13 +54778,13 @@
       <c r="P263" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q263" s="5">
+      <c r="Q263" s="7">
         <v>26036</v>
       </c>
       <c r="R263" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S263" s="5">
+      <c r="S263" s="7">
         <v>40664</v>
       </c>
       <c r="T263" s="4" t="s">
@@ -54974,13 +54976,13 @@
       <c r="P264" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q264" s="5">
+      <c r="Q264" s="7">
         <v>27451</v>
       </c>
       <c r="R264" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S264" s="5">
+      <c r="S264" s="7">
         <v>40664</v>
       </c>
       <c r="T264" s="4" t="s">
@@ -55174,13 +55176,13 @@
       <c r="P265" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q265" s="5">
+      <c r="Q265" s="7">
         <v>26890</v>
       </c>
       <c r="R265" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S265" s="5">
+      <c r="S265" s="7">
         <v>41051</v>
       </c>
       <c r="T265" s="4" t="s">
@@ -55372,13 +55374,13 @@
       <c r="P266" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q266" s="5">
+      <c r="Q266" s="7">
         <v>26614</v>
       </c>
       <c r="R266" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S266" s="5">
+      <c r="S266" s="7">
         <v>41244</v>
       </c>
       <c r="T266" s="4" t="s">
@@ -55568,13 +55570,13 @@
       <c r="P267" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q267" s="5">
+      <c r="Q267" s="7">
         <v>25921</v>
       </c>
       <c r="R267" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S267" s="5">
+      <c r="S267" s="7">
         <v>41470</v>
       </c>
       <c r="T267" s="4" t="s">
@@ -55766,13 +55768,13 @@
       <c r="P268" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q268" s="5">
+      <c r="Q268" s="7">
         <v>29037</v>
       </c>
       <c r="R268" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S268" s="5">
+      <c r="S268" s="7">
         <v>41470</v>
       </c>
       <c r="T268" s="4" t="s">
@@ -55964,13 +55966,13 @@
       <c r="P269" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q269" s="5">
+      <c r="Q269" s="7">
         <v>26647</v>
       </c>
       <c r="R269" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S269" s="5">
+      <c r="S269" s="7">
         <v>41470</v>
       </c>
       <c r="T269" s="4" t="s">
@@ -56162,13 +56164,13 @@
       <c r="P270" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q270" s="5">
+      <c r="Q270" s="7">
         <v>23843</v>
       </c>
       <c r="R270" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S270" s="5">
+      <c r="S270" s="7">
         <v>41470</v>
       </c>
       <c r="T270" s="4" t="s">
@@ -56365,13 +56367,13 @@
       <c r="P271" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q271" s="5">
+      <c r="Q271" s="7">
         <v>26193</v>
       </c>
       <c r="R271" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S271" s="5">
+      <c r="S271" s="7">
         <v>35936</v>
       </c>
       <c r="T271" s="4" t="s">
@@ -56566,13 +56568,13 @@
       <c r="P272" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q272" s="5">
+      <c r="Q272" s="7">
         <v>23608</v>
       </c>
       <c r="R272" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S272" s="5">
+      <c r="S272" s="7">
         <v>31747</v>
       </c>
       <c r="T272" s="4"/>
@@ -56716,6 +56718,7 @@
       <c r="CF272" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF272" xr:uid="{1F27B72E-DB17-4AD4-B989-DCB45D1746B3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>